--- a/biology/Biochimie/Diphosphate_fructose-6-phosphate_1-phosphotransférase/Diphosphate_fructose-6-phosphate_1-phosphotransférase.xlsx
+++ b/biology/Biochimie/Diphosphate_fructose-6-phosphate_1-phosphotransférase/Diphosphate_fructose-6-phosphate_1-phosphotransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diphosphate_fructose-6-phosphate_1-phosphotransf%C3%A9rase</t>
+          <t>Diphosphate_fructose-6-phosphate_1-phosphotransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La diphosphate fructose-6-phosphate 1-phosphotransférase (PFP) est une phosphotransférase qui catalyse la réaction :
 diphosphate + D-fructose-6-phosphate  
         ⇌
     {\displaystyle \rightleftharpoons }
   phosphate + D-fructose-1,6-bisphosphate.
-Cette enzyme intervient dans le métabolisme des glucides chez les plantes et certaines bactéries. Elle catalyse l'interconversion du fructose-6-phosphate et du fructose-1,6-bisphosphate avec parallèlement interconversion du pyrophosphate et du phosphate. Chez les plantes, cette enzyme se trouve dans le cytosol des cellules et est fortement activée par le fructose-2,6-bisphosphate[1], agissant comme molécule de signalisation cellulaire.
+Cette enzyme intervient dans le métabolisme des glucides chez les plantes et certaines bactéries. Elle catalyse l'interconversion du fructose-6-phosphate et du fructose-1,6-bisphosphate avec parallèlement interconversion du pyrophosphate et du phosphate. Chez les plantes, cette enzyme se trouve dans le cytosol des cellules et est fortement activée par le fructose-2,6-bisphosphate, agissant comme molécule de signalisation cellulaire.
 Plus précisément, le fructose-6-phosphate est phosphorylé en frutose-1,6-bisphosphate dans le sens glycolytique tandis que le fructose-1,6-bisphosphate est déphosphorylé en fructose-6-phosphate dans le sens néoglucogénétique.
-Cette enzyme a été isolée pour la première fois à partir de Entamoeba histolytica[2], un eucaryote. La première plante à partir de laquelle cette enzyme a été isolée est l'ananas[3]. Elle a depuis été isolée dans un grand nombre d'espèces et de tissus de plantes[1].
+Cette enzyme a été isolée pour la première fois à partir de Entamoeba histolytica, un eucaryote. La première plante à partir de laquelle cette enzyme a été isolée est l'ananas. Elle a depuis été isolée dans un grand nombre d'espèces et de tissus de plantes.
 </t>
         </is>
       </c>
